--- a/incident (8).xlsx
+++ b/incident (8).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E174CD9-8A89-4FEC-86D7-5B6FC8783FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9422DEE-61EE-4EC0-995F-52E86FBACA8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="198">
   <si>
     <t>Número</t>
   </si>
@@ -668,12 +668,6 @@
   </si>
   <si>
     <t>VID_PRD - ERRO NO JOB CS_VC_QLIK_LOG_DI_0200_TRA_L13_BR FAVOR VERIFICAR</t>
-  </si>
-  <si>
-    <t>INC0246475</t>
-  </si>
-  <si>
-    <t>VID_PRD - ERRO NO JOB CS_VC_QLIK_LOG_DI_0200_TRA_L13_CENTRO FAVOR VERIFICAR</t>
   </si>
 </sst>
 </file>
@@ -1145,11 +1139,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K95" sqref="K95"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94:XFD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4643,35 +4637,6 @@
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="B94" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D94" s="27">
-        <v>44040</v>
-      </c>
-      <c r="E94" s="24">
-        <v>0.19495370370370368</v>
-      </c>
-      <c r="H94" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="K94" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="L94" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="N94" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:N83" xr:uid="{FFF0C14B-C206-4B85-ADC4-3BCE87AC42E2}">
     <filterColumn colId="3">

--- a/incident (8).xlsx
+++ b/incident (8).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9422DEE-61EE-4EC0-995F-52E86FBACA8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAD8EA2-667E-4C62-A9A5-B1DA2BF01AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="200">
   <si>
     <t>Número</t>
   </si>
@@ -668,6 +668,12 @@
   </si>
   <si>
     <t>VID_PRD - ERRO NO JOB CS_VC_QLIK_LOG_DI_0200_TRA_L13_BR FAVOR VERIFICAR</t>
+  </si>
+  <si>
+    <t>INC0246475</t>
+  </si>
+  <si>
+    <t>VID_PRD - ERRO NO JOB CS_VC_QLIK_LOG_DI_0200_TRA_L13_CENTRO FAVOR VERIFICAR</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1145,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R93"/>
+  <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
@@ -4637,6 +4643,35 @@
         <v>175</v>
       </c>
     </row>
+    <row r="94" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" s="27">
+        <v>44040</v>
+      </c>
+      <c r="E94" s="24">
+        <v>0.19495370370370368</v>
+      </c>
+      <c r="H94" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="K94" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="L94" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="N94" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N83" xr:uid="{FFF0C14B-C206-4B85-ADC4-3BCE87AC42E2}">
     <filterColumn colId="3">

--- a/incident (8).xlsx
+++ b/incident (8).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAD8EA2-667E-4C62-A9A5-B1DA2BF01AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28A3972-99E4-4726-890E-F334876DF6ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="204">
   <si>
     <t>Número</t>
   </si>
@@ -674,6 +674,19 @@
   </si>
   <si>
     <t>VID_PRD - ERRO NO JOB CS_VC_QLIK_LOG_DI_0200_TRA_L13_CENTRO FAVOR VERIFICAR</t>
+  </si>
+  <si>
+    <t>INC0246535</t>
+  </si>
+  <si>
+    <t>3 - Moderada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QLIK	
+28/07/2020 </t>
+  </si>
+  <si>
+    <t>VID_PRD - ERRO NO JOB CS_VC_QLIK_LOG_DI_0630_PCP_L32_GERENC_LTN FAVOR VERIFICAR</t>
   </si>
 </sst>
 </file>
@@ -744,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -830,6 +843,7 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1145,11 +1159,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94:XFD94"/>
+      <selection pane="bottomLeft" activeCell="N96" sqref="N96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4672,6 +4686,32 @@
         <v>175</v>
       </c>
     </row>
+    <row r="95" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="E95" s="24">
+        <v>0.38347222222222221</v>
+      </c>
+      <c r="K95" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="L95" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="N95" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N83" xr:uid="{FFF0C14B-C206-4B85-ADC4-3BCE87AC42E2}">
     <filterColumn colId="3">

--- a/incident (8).xlsx
+++ b/incident (8).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28A3972-99E4-4726-890E-F334876DF6ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB5D691-E669-4F06-AE9A-AEB5A0187687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="203">
   <si>
     <t>Número</t>
   </si>
@@ -677,9 +677,6 @@
   </si>
   <si>
     <t>INC0246535</t>
-  </si>
-  <si>
-    <t>3 - Moderada</t>
   </si>
   <si>
     <t xml:space="preserve">QLIK	
@@ -1161,9 +1158,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N96" sqref="N96"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4691,19 +4688,19 @@
         <v>200</v>
       </c>
       <c r="B95" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" s="27" t="s">
         <v>201</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D95" s="27" t="s">
-        <v>202</v>
       </c>
       <c r="E95" s="24">
         <v>0.38347222222222221</v>
       </c>
       <c r="K95" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L95" s="26" t="s">
         <v>62</v>

--- a/incident (8).xlsx
+++ b/incident (8).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB5D691-E669-4F06-AE9A-AEB5A0187687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F68D968-F8F0-4EDD-B7AF-A7157B6AC327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="202">
   <si>
     <t>Número</t>
   </si>
@@ -677,10 +677,6 @@
   </si>
   <si>
     <t>INC0246535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QLIK	
-28/07/2020 </t>
   </si>
   <si>
     <t>VID_PRD - ERRO NO JOB CS_VC_QLIK_LOG_DI_0630_PCP_L32_GERENC_LTN FAVOR VERIFICAR</t>
@@ -1160,7 +1156,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
+      <selection pane="bottomLeft" activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4693,14 +4689,14 @@
       <c r="C95" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D95" s="27" t="s">
-        <v>201</v>
+      <c r="D95" s="27">
+        <v>44040</v>
       </c>
       <c r="E95" s="24">
         <v>0.38347222222222221</v>
       </c>
       <c r="K95" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L95" s="26" t="s">
         <v>62</v>

--- a/incident (8).xlsx
+++ b/incident (8).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F68D968-F8F0-4EDD-B7AF-A7157B6AC327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B73FE3-C0D4-4CAA-8867-548CC1364886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -836,7 +836,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1156,7 +1155,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L92" sqref="L92"/>
+      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4683,7 +4682,7 @@
       <c r="A95" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="26" t="s">

--- a/incident (8).xlsx
+++ b/incident (8).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B73FE3-C0D4-4CAA-8867-548CC1364886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0AAC66-C054-45D0-A6CF-8C3E90DC578A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$N$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$N$98</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="209">
   <si>
     <t>Número</t>
   </si>
@@ -681,6 +681,27 @@
   <si>
     <t>VID_PRD - ERRO NO JOB CS_VC_QLIK_LOG_DI_0630_PCP_L32_GERENC_LTN FAVOR VERIFICAR</t>
   </si>
+  <si>
+    <t>INC0246555</t>
+  </si>
+  <si>
+    <t>VID_PRD - ERRO NO JOB CS_VC_QLIK_LOG_DI_0830_DOC_L43_CANC_BR_LTN FAVOR VERIFICAR</t>
+  </si>
+  <si>
+    <t>INC0246696</t>
+  </si>
+  <si>
+    <t>INC0246842</t>
+  </si>
+  <si>
+    <t>VID_PRD - ERRO NO JOB CS_VC_QLIK_LOG_DI_1100_EXP_L62_PETRO_LTN FAVOR VERIFICAR</t>
+  </si>
+  <si>
+    <t>VID_PRD - ERRO NO JOB CS_VC_QLIK_LOG_DI_1300_PCP_L24_ARGAMAS FAVOR VERIFICAR</t>
+  </si>
+  <si>
+    <t>INC0246477</t>
+  </si>
 </sst>
 </file>
 
@@ -690,10 +711,17 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -750,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -794,7 +822,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -803,19 +831,16 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -833,8 +858,56 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1151,77 +1224,77 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R95"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="24" style="27" customWidth="1"/>
-    <col min="7" max="7" width="27" style="24" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" style="24" customWidth="1"/>
-    <col min="11" max="11" width="79.85546875" style="26" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" style="23" customWidth="1"/>
-    <col min="14" max="14" width="31.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" style="23" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="17.5703125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24" style="26" customWidth="1"/>
+    <col min="7" max="7" width="27" style="23" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="23" customWidth="1"/>
+    <col min="11" max="11" width="89.28515625" style="25" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" style="22" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" style="22" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="22" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3513,69 +3586,65 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="1" customFormat="1" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D63" s="3">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="E63" s="4">
-        <v>0.26149305555555552</v>
-      </c>
-      <c r="F63" s="3">
-        <v>44014</v>
-      </c>
-      <c r="G63" s="4">
-        <v>0.34861111111111115</v>
-      </c>
+        <v>0.44578703703703698</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="4"/>
       <c r="H63" s="14" t="s">
         <v>112</v>
       </c>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
       <c r="K63" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L63" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M63" s="13"/>
-      <c r="N63" s="2" t="s">
-        <v>123</v>
+      <c r="N63" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="O63" s="7"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
     </row>
-    <row r="64" spans="1:18" s="1" customFormat="1" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D64" s="3">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="E64" s="4">
-        <v>0.26142361111111112</v>
+        <v>0.44578703703703698</v>
       </c>
       <c r="F64" s="3">
-        <v>44014</v>
+        <v>44034</v>
       </c>
       <c r="G64" s="4">
-        <v>0.34841435185185188</v>
+        <v>0.5625</v>
       </c>
       <c r="H64" s="14" t="s">
         <v>112</v>
@@ -3583,14 +3652,14 @@
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
       <c r="K64" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L64" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M64" s="13"/>
-      <c r="N64" s="2" t="s">
-        <v>123</v>
+      <c r="N64" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="O64" s="7"/>
       <c r="P64" s="8"/>
@@ -3639,9 +3708,9 @@
       <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
     </row>
-    <row r="66" spans="1:18" s="1" customFormat="1" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>8</v>
@@ -3652,14 +3721,14 @@
       <c r="D66" s="3">
         <v>44014</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>158</v>
+      <c r="E66" s="4">
+        <v>0.26142361111111112</v>
       </c>
       <c r="F66" s="3">
         <v>44014</v>
       </c>
       <c r="G66" s="4">
-        <v>0.34819444444444447</v>
+        <v>0.34841435185185188</v>
       </c>
       <c r="H66" s="14" t="s">
         <v>112</v>
@@ -3667,10 +3736,10 @@
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
       <c r="K66" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L66" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M66" s="13"/>
       <c r="N66" s="2" t="s">
@@ -3694,7 +3763,7 @@
       <c r="D67" s="3">
         <v>44011</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="23">
         <v>0.3925925925925926</v>
       </c>
       <c r="F67" s="3">
@@ -3736,7 +3805,7 @@
       <c r="D68" s="3">
         <v>44012</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="23">
         <v>0.19052083333333333</v>
       </c>
       <c r="F68" s="3">
@@ -3765,65 +3834,69 @@
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
     </row>
-    <row r="69" spans="1:18" s="1" customFormat="1" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D69" s="3">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="E69" s="4">
-        <v>0.44578703703703698</v>
-      </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="4"/>
+        <v>0.26142361111111112</v>
+      </c>
+      <c r="F69" s="3">
+        <v>44014</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0.34841435185185188</v>
+      </c>
       <c r="H69" s="14" t="s">
         <v>112</v>
       </c>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
       <c r="K69" s="13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M69" s="13"/>
-      <c r="N69" s="13" t="s">
-        <v>7</v>
+      <c r="N69" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="O69" s="7"/>
       <c r="P69" s="8"/>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
     </row>
-    <row r="70" spans="1:18" s="1" customFormat="1" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D70" s="3">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="E70" s="4">
-        <v>0.44578703703703698</v>
+        <v>0.26149305555555552</v>
       </c>
       <c r="F70" s="3">
-        <v>44034</v>
+        <v>44014</v>
       </c>
       <c r="G70" s="4">
-        <v>0.5625</v>
+        <v>0.34861111111111115</v>
       </c>
       <c r="H70" s="14" t="s">
         <v>112</v>
@@ -3831,21 +3904,21 @@
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
       <c r="K70" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L70" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M70" s="13"/>
-      <c r="N70" s="13" t="s">
-        <v>7</v>
+      <c r="N70" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="O70" s="7"/>
       <c r="P70" s="8"/>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
     </row>
-    <row r="71" spans="1:18" s="1" customFormat="1" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>149</v>
       </c>
@@ -3887,9 +3960,9 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
     </row>
-    <row r="72" spans="1:18" s="1" customFormat="1" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>8</v>
@@ -3900,14 +3973,14 @@
       <c r="D72" s="3">
         <v>44014</v>
       </c>
-      <c r="E72" s="4">
-        <v>0.26142361111111112</v>
+      <c r="E72" s="23" t="s">
+        <v>158</v>
       </c>
       <c r="F72" s="3">
         <v>44014</v>
       </c>
       <c r="G72" s="4">
-        <v>0.34841435185185188</v>
+        <v>0.34819444444444447</v>
       </c>
       <c r="H72" s="14" t="s">
         <v>112</v>
@@ -3915,10 +3988,10 @@
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
       <c r="K72" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L72" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M72" s="13"/>
       <c r="N72" s="2" t="s">
@@ -3929,7 +4002,7 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
     </row>
-    <row r="73" spans="1:18" s="1" customFormat="1" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>151</v>
       </c>
@@ -3942,7 +4015,7 @@
       <c r="D73" s="3">
         <v>44014</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="23" t="s">
         <v>158</v>
       </c>
       <c r="F73" s="3">
@@ -3971,45 +4044,43 @@
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
     </row>
-    <row r="74" spans="1:18" s="1" customFormat="1" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D74" s="3">
-        <v>44032</v>
+        <v>44025.436990740738</v>
       </c>
       <c r="E74" s="8">
-        <v>0.29297453703703702</v>
+        <v>0.43699074074074074</v>
       </c>
       <c r="F74" s="3">
-        <v>44033</v>
+        <v>44029</v>
       </c>
       <c r="G74" s="8">
-        <v>0.30557870370370371</v>
-      </c>
-      <c r="H74" s="8" t="s">
+        <v>0.83475694444444448</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I74" s="7"/>
-      <c r="J74" s="8"/>
       <c r="K74" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="L74" s="6" t="s">
-        <v>62</v>
+        <v>166</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="M74" s="13"/>
-      <c r="N74" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="1" customFormat="1" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N74" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>161</v>
       </c>
@@ -4051,85 +4122,75 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="1" customFormat="1" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D76" s="3">
-        <v>44032.262627314813</v>
+        <v>44032</v>
       </c>
       <c r="E76" s="8">
-        <v>0.26262731481481483</v>
+        <v>0.29297453703703702</v>
       </c>
       <c r="F76" s="3">
         <v>44033</v>
       </c>
       <c r="G76" s="8">
-        <v>0.30541666666666667</v>
+        <v>0.30557870370370371</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="I76" s="17">
-        <v>0.2638888888888889</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="I76" s="7"/>
       <c r="J76" s="8"/>
       <c r="K76" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L76" s="6" t="s">
         <v>62</v>
       </c>
       <c r="M76" s="13"/>
-      <c r="N76" s="13" t="s">
+      <c r="N76" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="1" customFormat="1" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D77" s="3">
-        <v>44025.436990740738</v>
-      </c>
-      <c r="E77" s="8">
-        <v>0.43699074074074074</v>
-      </c>
-      <c r="F77" s="3">
-        <v>44029</v>
-      </c>
-      <c r="G77" s="8">
-        <v>0.83475694444444448</v>
+        <v>44032</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0.58865740740740746</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="J77" s="8"/>
       <c r="K77" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="M77" s="13"/>
       <c r="N77" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" s="1" customFormat="1" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>6</v>
@@ -4138,35 +4199,38 @@
         <v>55</v>
       </c>
       <c r="D78" s="3">
+        <v>44032.262627314813</v>
+      </c>
+      <c r="E78" s="8">
+        <v>0.26262731481481483</v>
+      </c>
+      <c r="F78" s="3">
         <v>44033</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F78" s="7">
-        <v>44034</v>
-      </c>
-      <c r="G78" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>112</v>
+      <c r="G78" s="8">
+        <v>0.30541666666666667</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I78" s="17">
+        <v>0.2638888888888889</v>
       </c>
       <c r="J78" s="8"/>
       <c r="K78" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="L78" s="6" t="s">
         <v>62</v>
       </c>
       <c r="M78" s="13"/>
-      <c r="N78" s="2" t="s">
+      <c r="N78" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="1" customFormat="1" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>8</v>
@@ -4177,8 +4241,8 @@
       <c r="D79" s="3">
         <v>44033</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>170</v>
+      <c r="E79" s="4">
+        <v>0.29282407407407407</v>
       </c>
       <c r="F79" s="7">
         <v>44034</v>
@@ -4191,7 +4255,7 @@
       </c>
       <c r="J79" s="8"/>
       <c r="K79" s="13" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>62</v>
@@ -4201,12 +4265,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="1" customFormat="1" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>55</v>
@@ -4214,8 +4278,8 @@
       <c r="D80" s="3">
         <v>44033</v>
       </c>
-      <c r="E80" s="4">
-        <v>0.29282407407407407</v>
+      <c r="E80" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="F80" s="7">
         <v>44034</v>
@@ -4228,7 +4292,7 @@
       </c>
       <c r="J80" s="8"/>
       <c r="K80" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>62</v>
@@ -4238,37 +4302,46 @@
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="1" customFormat="1" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D81" s="3">
-        <v>44032</v>
-      </c>
-      <c r="E81" s="4">
-        <v>0.58865740740740746</v>
+        <v>44033</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F81" s="7">
+        <v>44034</v>
+      </c>
+      <c r="G81" s="11">
+        <v>0.58333333333333337</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>112</v>
       </c>
       <c r="J81" s="8"/>
       <c r="K81" s="13" t="s">
-        <v>174</v>
+        <v>160</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="M81" s="13"/>
-      <c r="N81" s="13" t="s">
-        <v>175</v>
+      <c r="N81" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>8</v>
@@ -4279,35 +4352,33 @@
       <c r="D82" s="9">
         <v>44034</v>
       </c>
-      <c r="E82" s="24">
-        <v>0.99670138888888893</v>
+      <c r="E82" s="23">
+        <v>0.99554398148148149</v>
       </c>
       <c r="F82" s="9">
-        <v>44035.013009259259</v>
+        <v>44035</v>
       </c>
       <c r="G82" s="10">
-        <v>1.300925925925926E-2</v>
-      </c>
-      <c r="H82" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="I82" s="16">
-        <v>0.99722222222222223</v>
-      </c>
+        <v>6.2256944444444441E-2</v>
+      </c>
+      <c r="H82" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="L82" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="L82" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N82" s="23" t="s">
+      <c r="N82" s="22" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>8</v>
@@ -4318,27 +4389,29 @@
       <c r="D83" s="9">
         <v>44034</v>
       </c>
-      <c r="E83" s="24">
-        <v>0.99554398148148149</v>
+      <c r="E83" s="23">
+        <v>0.99670138888888893</v>
       </c>
       <c r="F83" s="9">
-        <v>44035</v>
+        <v>44035.013009259259</v>
       </c>
       <c r="G83" s="10">
-        <v>6.2256944444444441E-2</v>
-      </c>
-      <c r="H83" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="I83" s="2"/>
+        <v>1.300925925925926E-2</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="I83" s="16">
+        <v>0.99722222222222223</v>
+      </c>
       <c r="J83" s="2"/>
       <c r="K83" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="L83" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="L83" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N83" s="23" t="s">
+      <c r="N83" s="22" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4364,50 +4437,47 @@
       <c r="G84" s="12">
         <v>0.88606481481481481</v>
       </c>
-      <c r="H84" s="25"/>
+      <c r="H84" s="24"/>
       <c r="K84" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="N84" s="23" t="s">
+      <c r="N84" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D85" s="9">
-        <v>44037</v>
-      </c>
-      <c r="E85" s="12">
-        <v>0.86623842592592604</v>
-      </c>
-      <c r="F85" s="9">
-        <v>44038</v>
-      </c>
-      <c r="G85" s="12">
-        <v>0.88665509259259256</v>
-      </c>
-      <c r="H85" s="25"/>
-      <c r="K85" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="L85" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="N85" s="13" t="s">
-        <v>123</v>
+      <c r="A85" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85" s="38">
+        <v>44035</v>
+      </c>
+      <c r="E85" s="39">
+        <v>0.63056712962962969</v>
+      </c>
+      <c r="F85" s="38"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="L85" s="36"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="40" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>189</v>
@@ -4416,23 +4486,23 @@
         <v>55</v>
       </c>
       <c r="D86" s="9">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="E86" s="12">
-        <v>0.2701736111111111</v>
+        <v>0.86623842592592604</v>
       </c>
       <c r="F86" s="9">
         <v>44038</v>
       </c>
       <c r="G86" s="12">
-        <v>0.88715277777777779</v>
-      </c>
-      <c r="H86" s="25"/>
+        <v>0.88665509259259256</v>
+      </c>
+      <c r="H86" s="24"/>
       <c r="K86" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="L86" s="26" t="s">
-        <v>62</v>
+        <v>191</v>
+      </c>
+      <c r="L86" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="N86" s="13" t="s">
         <v>123</v>
@@ -4440,10 +4510,10 @@
     </row>
     <row r="87" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>55</v>
@@ -4452,19 +4522,19 @@
         <v>44038</v>
       </c>
       <c r="E87" s="12">
-        <v>0.28942129629629632</v>
+        <v>0.2701736111111111</v>
       </c>
       <c r="F87" s="9">
         <v>44038</v>
       </c>
       <c r="G87" s="12">
-        <v>0.88753472222222218</v>
-      </c>
-      <c r="H87" s="25"/>
+        <v>0.88715277777777779</v>
+      </c>
+      <c r="H87" s="24"/>
       <c r="K87" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="L87" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="L87" s="25" t="s">
         <v>62</v>
       </c>
       <c r="N87" s="13" t="s">
@@ -4473,31 +4543,31 @@
     </row>
     <row r="88" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>189</v>
+        <v>8</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D88" s="9">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="E88" s="12">
-        <v>0.26516203703703706</v>
+        <v>0.28942129629629632</v>
       </c>
       <c r="F88" s="9">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="G88" s="12">
-        <v>0.55134259259259266</v>
-      </c>
-      <c r="H88" s="25"/>
+        <v>0.88753472222222218</v>
+      </c>
+      <c r="H88" s="24"/>
       <c r="K88" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="L88" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="L88" s="25" t="s">
         <v>62</v>
       </c>
       <c r="N88" s="13" t="s">
@@ -4506,10 +4576,10 @@
     </row>
     <row r="89" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>55</v>
@@ -4518,19 +4588,19 @@
         <v>44039</v>
       </c>
       <c r="E89" s="12">
-        <v>0.28385416666666669</v>
+        <v>0.26516203703703706</v>
       </c>
       <c r="F89" s="9">
         <v>44039</v>
       </c>
       <c r="G89" s="12">
-        <v>0.55199074074074073</v>
-      </c>
-      <c r="H89" s="25"/>
+        <v>0.55134259259259266</v>
+      </c>
+      <c r="H89" s="24"/>
       <c r="K89" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="L89" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="L89" s="25" t="s">
         <v>62</v>
       </c>
       <c r="N89" s="13" t="s">
@@ -4539,37 +4609,40 @@
     </row>
     <row r="90" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D90" s="9">
         <v>44039</v>
       </c>
       <c r="E90" s="12">
-        <v>0.57575231481481481</v>
+        <v>0.28385416666666669</v>
       </c>
       <c r="F90" s="9">
         <v>44039</v>
       </c>
       <c r="G90" s="12">
-        <v>0.65780092592592598</v>
-      </c>
-      <c r="H90" s="25"/>
+        <v>0.55199074074074073</v>
+      </c>
+      <c r="H90" s="24"/>
       <c r="K90" s="13" t="s">
-        <v>192</v>
+        <v>160</v>
+      </c>
+      <c r="L90" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="N90" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="35" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>48</v>
@@ -4581,147 +4654,318 @@
         <v>44039</v>
       </c>
       <c r="E91" s="12">
+        <v>0.57575231481481481</v>
+      </c>
+      <c r="F91" s="9">
+        <v>44039</v>
+      </c>
+      <c r="G91" s="12">
+        <v>0.65780092592592598</v>
+      </c>
+      <c r="H91" s="24"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="L91" s="25"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92" s="29">
+        <v>44039</v>
+      </c>
+      <c r="E92" s="30">
         <v>0.64346064814814818</v>
       </c>
-      <c r="H91" s="25"/>
-      <c r="K91" s="13" t="s">
+      <c r="F92" s="31"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="N91" s="13" t="s">
+      <c r="L92" s="34"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="28" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D92" s="7">
-        <v>44035</v>
-      </c>
-      <c r="E92" s="8">
-        <v>0.63056712962962969</v>
-      </c>
-      <c r="F92" s="7"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="L92" s="6"/>
-      <c r="N92" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="26" t="s">
+    <row r="93" spans="1:14" s="35" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D93" s="27">
+      <c r="C93" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D93" s="31">
         <v>44040</v>
       </c>
-      <c r="E93" s="28">
+      <c r="E93" s="41">
         <v>0.17349537037037036</v>
       </c>
-      <c r="H93" s="24" t="s">
+      <c r="F93" s="9">
+        <v>44041</v>
+      </c>
+      <c r="G93" s="12">
+        <v>0.34043981481481483</v>
+      </c>
+      <c r="H93" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="K93" s="26" t="s">
+      <c r="I93" s="31"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="L93" s="26" t="s">
+      <c r="L93" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="N93" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="35" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" s="42">
+        <v>44040</v>
+      </c>
+      <c r="E94" s="43">
+        <v>0.19495370370370368</v>
+      </c>
+      <c r="F94" s="9">
+        <v>44041</v>
+      </c>
+      <c r="G94" s="12">
+        <v>0.34069444444444441</v>
+      </c>
+      <c r="H94" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="I94" s="31"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="L94" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="N94" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="35" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B95" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" s="42">
+        <v>44040</v>
+      </c>
+      <c r="E95" s="23">
+        <v>0.25700231481481478</v>
+      </c>
+      <c r="F95" s="26">
+        <v>44041</v>
+      </c>
+      <c r="G95" s="23">
+        <v>0.34194444444444444</v>
+      </c>
+      <c r="H95" s="23"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="L95" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N93" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="B94" s="23" t="s">
+      <c r="M95" s="22"/>
+      <c r="N95" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D94" s="27">
+      <c r="C96" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96" s="42">
         <v>44040</v>
       </c>
-      <c r="E94" s="24">
-        <v>0.19495370370370368</v>
-      </c>
-      <c r="H94" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="K94" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="L94" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="N94" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="B95" s="23" t="s">
+      <c r="E96" s="43">
+        <v>0.38347222222222221</v>
+      </c>
+      <c r="F96" s="9">
+        <v>44041</v>
+      </c>
+      <c r="G96" s="12">
+        <v>0.3409490740740741</v>
+      </c>
+      <c r="H96" s="32"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="L96" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="M96" s="35"/>
+      <c r="N96" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B97" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C95" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D95" s="27">
+      <c r="C97" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" s="42">
         <v>44040</v>
       </c>
-      <c r="E95" s="24">
-        <v>0.38347222222222221</v>
-      </c>
-      <c r="K95" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="L95" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="N95" s="23" t="s">
-        <v>175</v>
+      <c r="E97" s="43">
+        <v>0.39542824074074073</v>
+      </c>
+      <c r="F97" s="9">
+        <v>44041</v>
+      </c>
+      <c r="G97" s="12">
+        <v>0.34119212962962964</v>
+      </c>
+      <c r="K97" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L97" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="N97" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B98" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D98" s="42">
+        <v>44040</v>
+      </c>
+      <c r="E98" s="23">
+        <v>0.47589120370370369</v>
+      </c>
+      <c r="F98" s="26">
+        <v>44041</v>
+      </c>
+      <c r="G98" s="23">
+        <v>0.34145833333333336</v>
+      </c>
+      <c r="K98" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L98" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="N98" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B99" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D99" s="42">
+        <v>44040</v>
+      </c>
+      <c r="E99" s="23">
+        <v>0.62482638888888886</v>
+      </c>
+      <c r="F99" s="26">
+        <v>44041</v>
+      </c>
+      <c r="G99" s="23">
+        <v>0.3417013888888889</v>
+      </c>
+      <c r="K99" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L99" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="N99" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N83" xr:uid="{FFF0C14B-C206-4B85-ADC4-3BCE87AC42E2}">
+  <autoFilter ref="A1:N98" xr:uid="{FFF0C14B-C206-4B85-ADC4-3BCE87AC42E2}">
     <filterColumn colId="3">
       <filters>
         <dateGroupItem year="2020" month="7" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="13">
-      <filters>
-        <filter val="Resolvido"/>
-      </filters>
-    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A63:N99">
+      <sortCondition ref="D1:D98"/>
+    </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:U53">
     <sortCondition ref="D41"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A98" r:id="rId1" display="https://votorantim.service-now.com/incident.do?sys_id=4d2c76d91b5e94907fcf0d8fe54bcb3d&amp;sysparm_record_target=task&amp;sysparm_record_row=2&amp;sysparm_record_rows=12&amp;sysparm_record_list=active%3Dtrue%5Eassigned_to%3Djavascript%3AgetMyAssignments%28%29%5Estate%21%3D-5%5EORDERBYDESCsys_created_on" xr:uid="{FA020D2F-2403-46B1-98E0-2C054487BA23}"/>
+    <hyperlink ref="A99" r:id="rId2" display="https://votorantim.service-now.com/incident.do?sys_id=aa3d63991b1ed4907fcf0d8fe54bcb07&amp;sysparm_record_target=task&amp;sysparm_record_row=1&amp;sysparm_record_rows=12&amp;sysparm_record_list=active%3Dtrue%5Eassigned_to%3Djavascript%3AgetMyAssignments%28%29%5Estate%21%3D-5%5EORDERBYDESCsys_created_on" xr:uid="{990AE712-7502-41B1-9D3C-406F25A32DF6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/incident (8).xlsx
+++ b/incident (8).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0AAC66-C054-45D0-A6CF-8C3E90DC578A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647C93E7-792F-4E4F-89F3-4D0166904AB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1226,9 +1226,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M85" sqref="M85"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94:XFD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4810,8 +4810,8 @@
         <v>62</v>
       </c>
       <c r="M95" s="22"/>
-      <c r="N95" s="22" t="s">
-        <v>7</v>
+      <c r="N95" s="35" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
